--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\selcukes-java-skeleton\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\selcukes-demo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7488FB-096F-4D8D-8400-815BAC44FE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8913756F-D2AA-4B49-8967-C59742B9D0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8ED8C800-1088-4943-A8AD-3DF4EB6B3031}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8ED8C800-1088-4943-A8AD-3DF4EB6B3031}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>Screen</t>
   </si>
@@ -145,6 +145,21 @@
   </si>
   <si>
     <t>Yahoo::Yahoo Login</t>
+  </si>
+  <si>
+    <t>#{Name.first_name}</t>
+  </si>
+  <si>
+    <t>#{Name.last_name}</t>
+  </si>
+  <si>
+    <t>#{date.birthday 'MM-dd-yyyy'}</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>#{Address.city}</t>
   </si>
 </sst>
 </file>
@@ -605,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6068E7A2-F303-4CB3-9D5D-18DC8BE390E6}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,16 +851,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1200F9D5-93C0-4617-A842-EFDA4EEB3250}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.109375" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -865,7 +882,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
@@ -882,16 +899,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -903,16 +920,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -924,16 +941,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\selcukes-demo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8913756F-D2AA-4B49-8967-C59742B9D0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B1E1BE-DC8E-4F3E-B6CF-B5B74D7ABECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8ED8C800-1088-4943-A8AD-3DF4EB6B3031}"/>
   </bookViews>
@@ -852,7 +852,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\selcukes-demo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B1E1BE-DC8E-4F3E-B6CF-B5B74D7ABECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19A8C9D-3F4F-449E-A49B-2D090E9D6CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8ED8C800-1088-4943-A8AD-3DF4EB6B3031}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{8ED8C800-1088-4943-A8AD-3DF4EB6B3031}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
   <si>
     <t>Screen</t>
   </si>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892C38F4-A4CC-4945-A2B2-9FBF302DFD05}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,8 +815,9 @@
       <c r="F4" s="1">
         <v>36</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
+      <c r="G4" s="1" t="str">
+        <f>G2</f>
+        <v>Hyderabad</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -851,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1200F9D5-93C0-4617-A842-EFDA4EEB3250}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
